--- a/Five/测试报告.xlsx
+++ b/Five/测试报告.xlsx
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
